--- a/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
@@ -522,6 +522,9 @@
       <c r="C11" t="str">
         <v>579_腊梅红_wax red_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -583,7 +586,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010551510601510100</v>
+        <v>010551510601510101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,12 +523,95 @@
         <v>579_腊梅红_wax red_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>581_腊梅橙_wax orange_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>580_腊梅黄_wax yellow_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <v>860_大菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>798_大菊粉_undefined_undefined_5stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>797_大菊黄_undefined_undefined_5stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>3</v>
+      </c>
+      <c r="C19" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -586,7 +669,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010551510601510101</v>
+        <v>01055151060151010105551010555100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
@@ -608,6 +608,9 @@
       <c r="C21" t="str">
         <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -669,7 +672,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01055151060151010105551010555100</v>
+        <v>010551510601510101055510105551010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,9 +612,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>427_新娘_Blushing Bride_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -672,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010551510601510101055510105551010</v>
+        <v>01055151060151010105551010555101010105510151515101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
@@ -692,7 +692,7 @@
         <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01055151060151010105551010555101010105510151515101</v>
+        <v>010551510601510101055510105551010101055101515151010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,9 +695,33 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L34"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -755,7 +779,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010551510601510101055510105551010101055101515151010</v>
+        <v>0105515106015101010555101055510101010551015151510105510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-1-9.xlsx
@@ -781,6 +781,9 @@
       <c r="G2" t="str">
         <v>0105515106015101010555101055510101010551015151510105510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
